--- a/data/lab2-matrix-math.xlsx
+++ b/data/lab2-matrix-math.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\econometrics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\lab-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9C27D-7F54-4F01-B026-E1A5D4F606BC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF5CE66-F492-4227-A4C2-2998F69E8E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="math" sheetId="1" r:id="rId1"/>
@@ -187,22 +187,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>$E(Y|X=X_0)_L$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$E(Y|X=X_0)_R$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$(Y_0|X=X_0)_L$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$(Y_0|X=X_0)_R$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>均值预测</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -211,14 +195,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>$E(Y|X=X_0)$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$(Y_0|X=X_0)$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>$\hat{Y}_0$</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -735,9 +711,6 @@
     <t>right</t>
   </si>
   <si>
-    <t>$\hat{\beta_2}$和$\hat{Y}_i$，可分别记为b2_hat和y_upr_hat</t>
-  </si>
-  <si>
     <t>样本均值$\bar{X}$作为标量，可记为x_avr_scl</t>
   </si>
   <si>
@@ -747,21 +720,6 @@
     <t>样本标准差$S_{(\hat{Y}_0-Y_0)}$，可记为s_y0h_mns_y0</t>
   </si>
   <si>
-    <t>均值预测值$E(Y|X=X_0)$，可记为fst_exp</t>
-  </si>
-  <si>
-    <t>均值预测值$E(Y|X=X_0)$，可记为fst_ex</t>
-  </si>
-  <si>
-    <t>个值预测值$(Y_0|X=X_0)_L$，可记为fst_ind</t>
-  </si>
-  <si>
-    <t>均值区间预测的左界值$E(Y|X=X_0)_L$，可记为y_exp_lft</t>
-  </si>
-  <si>
-    <t>均值区间预测的右界值$E(Y|X=X_0)_R$，可记为y_exp_rht</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1135,6 +1093,184 @@
         <family val="2"/>
       </rPr>
       <t>x_avr_ser</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$E(Y{\mid}X=X_0)$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$E(Y{\mid}X=X_0)_L$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$E(Y{\mid}X=X_0)_R$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(Y_0{\mid}X=X_0)$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(Y_0{\mid}X=X_0)_L$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(Y_0{\mid}X=X_0)_R$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>个值预测值$(Y_0{\mid}X=X_0)_L$，可记为fst_ind</t>
+  </si>
+  <si>
+    <t>均值区间预测的左界值$E(Y{\mid}X=X_0)_L$，可记为y_exp_lft</t>
+  </si>
+  <si>
+    <t>均值区间预测的右界值$E(Y{\mid}X=X_0)_R$，可记为y_exp_rht</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均值预测值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$E(Y{\mid}X=X_0)$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可记为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fst_ex</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均值预测值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$E(Y{\mid}X=X_0)$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可记为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fst_exp</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$\hat{\beta}_2$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$\hat{Y}_i$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可分别记为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b2_hat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y_upr_hat</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1797,48 +1933,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1854,7 +1990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2152,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2186,10 +2322,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2198,18 +2334,18 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2218,18 +2354,18 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2238,18 +2374,18 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2258,18 +2394,18 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -2278,18 +2414,18 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -2298,18 +2434,18 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2318,18 +2454,18 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -2338,18 +2474,18 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -2358,18 +2494,18 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -2378,18 +2514,18 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -2398,18 +2534,18 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -2418,18 +2554,18 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -2438,18 +2574,18 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -2458,18 +2594,18 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -2478,18 +2614,18 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2498,18 +2634,18 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2518,18 +2654,18 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -2538,18 +2674,18 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -2558,18 +2694,18 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -2578,18 +2714,18 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -2598,10 +2734,10 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2609,7 +2745,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2621,7 +2757,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2629,7 +2765,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2641,15 +2777,15 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2658,18 +2794,18 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2678,18 +2814,18 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2698,18 +2834,18 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2718,10 +2854,10 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2786,10 +2922,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2798,18 +2934,18 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2818,18 +2954,18 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2838,18 +2974,18 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2858,10 +2994,10 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2869,7 +3005,7 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2881,15 +3017,15 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2898,18 +3034,18 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2918,10 +3054,10 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2946,7 +3082,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -2986,7 +3122,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -3006,10 +3142,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3018,18 +3154,18 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3038,15 +3174,15 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -3078,7 +3214,7 @@
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -3098,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
@@ -3106,10 +3242,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3118,18 +3254,18 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3141,7 +3277,7 @@
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3158,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="F50" t="s">
         <v>44</v>
@@ -3178,7 +3314,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
         <v>45</v>
@@ -3196,7 +3332,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3209,105 +3345,105 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3316,12 +3452,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -3330,123 +3466,124 @@
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>